--- a/Z Payment Stuff/TimeSheet.xlsx
+++ b/Z Payment Stuff/TimeSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryBox\Documents\SK_Investair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryBox\Documents\SK_Investair\Z Payment Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD200865-5DBE-4E4D-A185-275A78EBF276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFFF68-E9FF-4154-8639-207CE45C7B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
   </bookViews>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -137,24 +137,21 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,7 +491,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,13 +504,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -528,14 +525,14 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -550,12 +547,12 @@
       <c r="D3" s="6">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -570,12 +567,12 @@
       <c r="D4" s="6">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -590,12 +587,12 @@
       <c r="D5" s="6">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -610,12 +607,12 @@
       <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -630,12 +627,12 @@
       <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -650,12 +647,12 @@
       <c r="D8" s="6">
         <v>8</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -670,12 +667,12 @@
       <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -690,12 +687,12 @@
       <c r="D10" s="6">
         <v>8</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -710,12 +707,12 @@
       <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -730,12 +727,12 @@
       <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -750,12 +747,12 @@
       <c r="D13" s="6">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="E13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -770,12 +767,12 @@
       <c r="D14" s="6">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="E14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -790,12 +787,12 @@
       <c r="D15" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="E15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -810,12 +807,12 @@
       <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -830,12 +827,12 @@
       <c r="D17" s="6">
         <v>4.5</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -850,12 +847,12 @@
       <c r="D18" s="6">
         <v>8</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -870,170 +867,172 @@
       <c r="D19" s="6">
         <v>8</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="E19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="2">
         <v>45789</v>
       </c>
-      <c r="B20" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D20" s="12">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="2">
         <v>45792</v>
       </c>
-      <c r="B21" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D21" s="12">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="B21" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="2">
         <v>45793</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="2">
         <v>45799</v>
       </c>
-      <c r="B23" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D23" s="12">
-        <v>8</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="B23" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="2">
         <v>45800</v>
       </c>
-      <c r="B24" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D24" s="12">
-        <v>8</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="B24" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="2">
+        <v>45803</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
@@ -1041,11 +1040,16 @@
       </c>
       <c r="D32">
         <f>SUM(D20:D31)</f>
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E19:H19"/>
@@ -1061,11 +1065,6 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Z Payment Stuff/TimeSheet.xlsx
+++ b/Z Payment Stuff/TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryBox\Documents\SK_Investair\Z Payment Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samkember/Documents/SK_Investair/Z Payment Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFFF68-E9FF-4154-8639-207CE45C7B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03EB9A-4EED-AF49-AAF7-997DFD57A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>Samuel Kember Working Days &amp; Hours</t>
   </si>
@@ -62,10 +62,10 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting to Terry and Tom </t>
+    <t>Status</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Meeting to Terry and Tom to organise how to get the full pipeline working</t>
   </si>
 </sst>
 </file>
@@ -133,25 +133,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,31 +492,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C70A4-1E55-444B-A1B7-264DA953B7F5}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -528,543 +532,680 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>45714</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>45721</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>45723</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>45726</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B6" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>45741</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B7" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>45748</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B8" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>45750</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B9" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>45755</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>45757</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>45762</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="B12" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>45764</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B13" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>45771</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D14" s="6">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="B14" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>45775</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="B15" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>45778</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.5</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>45779</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.5</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.6875</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>4.5</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="E17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>45782</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D18" s="6">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="B18" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>45785</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D19" s="6">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45789</v>
       </c>
-      <c r="B20" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+      <c r="F20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45792</v>
       </c>
-      <c r="B21" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+      <c r="F21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45793</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="4">
         <v>0.58333333333333337</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45799</v>
       </c>
-      <c r="B23" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
+      <c r="F23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45800</v>
       </c>
-      <c r="B24" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="5"/>
+      <c r="F24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45803</v>
       </c>
-      <c r="B25" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="5"/>
+      <c r="F25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45806</v>
       </c>
-      <c r="B26" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="9"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="E29" s="9"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D29">
+        <v>5.5</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="9"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="D32">
-        <f>SUM(D20:D31)</f>
-        <v>49</v>
+      <c r="D36">
+        <f>SUM(D28:D35)</f>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="35">
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Z Payment Stuff/TimeSheet.xlsx
+++ b/Z Payment Stuff/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samkember/Documents/SK_Investair/Z Payment Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03EB9A-4EED-AF49-AAF7-997DFD57A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE98B4-71FA-9E46-A399-1D5CCE3A085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
   </bookViews>
@@ -141,21 +141,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,13 +508,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -532,11 +532,11 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -554,11 +554,11 @@
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -576,11 +576,11 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -598,11 +598,11 @@
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -620,11 +620,11 @@
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -642,11 +642,11 @@
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -664,11 +664,11 @@
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -686,11 +686,11 @@
       <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -708,11 +708,11 @@
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -730,11 +730,11 @@
       <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -752,11 +752,11 @@
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -774,11 +774,11 @@
       <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -796,11 +796,11 @@
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -818,11 +818,11 @@
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -840,11 +840,11 @@
       <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -862,11 +862,11 @@
       <c r="E17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -884,11 +884,11 @@
       <c r="E18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -906,11 +906,11 @@
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -926,11 +926,11 @@
         <v>8</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -946,11 +946,11 @@
         <v>8</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="F21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -968,11 +968,11 @@
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -988,11 +988,11 @@
         <v>8</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1008,11 +1008,11 @@
         <v>8</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1028,11 +1028,11 @@
         <v>8</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1048,11 +1048,11 @@
         <v>8</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1068,11 +1068,11 @@
         <v>8</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1111,8 +1111,18 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -1151,14 +1161,14 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
@@ -1166,11 +1176,30 @@
       </c>
       <c r="D36">
         <f>SUM(D28:D35)</f>
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="F34:H34"/>
@@ -1180,11 +1209,6 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
@@ -1192,20 +1216,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Z Payment Stuff/TimeSheet.xlsx
+++ b/Z Payment Stuff/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samkember/Documents/SK_Investair/Z Payment Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE98B4-71FA-9E46-A399-1D5CCE3A085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47C516-D1FB-3D4F-B56F-6D5075AF5092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
   </bookViews>
@@ -143,12 +143,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -156,6 +150,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,13 +508,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -532,11 +532,11 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -554,11 +554,11 @@
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -576,11 +576,11 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -598,11 +598,11 @@
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -620,11 +620,11 @@
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -642,11 +642,11 @@
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -664,11 +664,11 @@
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -686,11 +686,11 @@
       <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -708,11 +708,11 @@
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -730,11 +730,11 @@
       <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -752,11 +752,11 @@
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="F12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -774,11 +774,11 @@
       <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -796,11 +796,11 @@
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -818,11 +818,11 @@
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -840,11 +840,11 @@
       <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="F16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -862,11 +862,11 @@
       <c r="E17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -884,11 +884,11 @@
       <c r="E18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="F18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -906,11 +906,11 @@
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="F19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -926,11 +926,11 @@
         <v>8</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -946,11 +946,11 @@
         <v>8</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="F21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -968,11 +968,11 @@
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -988,11 +988,11 @@
         <v>8</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1008,11 +1008,11 @@
         <v>8</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1028,11 +1028,11 @@
         <v>8</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1048,11 +1048,11 @@
         <v>8</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="F26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1068,11 +1068,11 @@
         <v>8</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="F27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1088,9 +1088,9 @@
         <v>8</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -1106,9 +1106,9 @@
         <v>5.5</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -1124,41 +1124,61 @@
         <v>8</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
@@ -1166,9 +1186,9 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
@@ -1176,30 +1196,11 @@
       </c>
       <c r="D36">
         <f>SUM(D28:D35)</f>
-        <v>21.5</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="F34:H34"/>
@@ -1216,6 +1217,25 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Z Payment Stuff/TimeSheet.xlsx
+++ b/Z Payment Stuff/TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samkember/Documents/SK_Investair/Z Payment Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryBox\Documents\SK_Investair\Z Payment Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47C516-D1FB-3D4F-B56F-6D5075AF5092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B5F0B5-5806-4E7C-AEB0-6BC931A4D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
   <si>
     <t>Samuel Kember Working Days &amp; Hours</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Meeting to Terry and Tom to organise how to get the full pipeline working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a chat with Tom about what he was leaving / looked through all his stuff before he left </t>
   </si>
 </sst>
 </file>
@@ -143,6 +146,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,12 +159,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -492,31 +495,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C70A4-1E55-444B-A1B7-264DA953B7F5}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,13 +535,13 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45714</v>
       </c>
@@ -554,13 +557,13 @@
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45721</v>
       </c>
@@ -576,13 +579,13 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45723</v>
       </c>
@@ -598,13 +601,13 @@
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45726</v>
       </c>
@@ -620,13 +623,13 @@
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45741</v>
       </c>
@@ -642,13 +645,13 @@
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45748</v>
       </c>
@@ -664,13 +667,13 @@
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45750</v>
       </c>
@@ -686,13 +689,13 @@
       <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45755</v>
       </c>
@@ -708,13 +711,13 @@
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45757</v>
       </c>
@@ -730,13 +733,13 @@
       <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45762</v>
       </c>
@@ -752,13 +755,13 @@
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45764</v>
       </c>
@@ -774,13 +777,13 @@
       <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45771</v>
       </c>
@@ -796,13 +799,13 @@
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45775</v>
       </c>
@@ -818,13 +821,13 @@
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45778</v>
       </c>
@@ -840,13 +843,13 @@
       <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45779</v>
       </c>
@@ -862,13 +865,13 @@
       <c r="E17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45782</v>
       </c>
@@ -884,13 +887,13 @@
       <c r="E18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45785</v>
       </c>
@@ -906,13 +909,13 @@
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45789</v>
       </c>
@@ -926,13 +929,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45792</v>
       </c>
@@ -946,13 +949,13 @@
         <v>8</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45793</v>
       </c>
@@ -968,13 +971,13 @@
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45799</v>
       </c>
@@ -988,13 +991,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45800</v>
       </c>
@@ -1008,13 +1011,13 @@
         <v>8</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45803</v>
       </c>
@@ -1028,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45806</v>
       </c>
@@ -1048,13 +1051,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45814</v>
       </c>
@@ -1068,13 +1071,13 @@
         <v>8</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45820</v>
       </c>
@@ -1088,11 +1091,11 @@
         <v>8</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45821</v>
       </c>
@@ -1106,11 +1109,11 @@
         <v>5.5</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45828</v>
       </c>
@@ -1124,11 +1127,11 @@
         <v>8</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45834</v>
       </c>
@@ -1142,11 +1145,11 @@
         <v>8</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45835</v>
       </c>
@@ -1160,51 +1163,120 @@
         <v>8</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D36">
-        <f>SUM(D28:D35)</f>
-        <v>37.5</v>
+      <c r="D38">
+        <f>SUM(D28:D37)</f>
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
@@ -1217,25 +1289,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
